--- a/IS1308_SSAS_MultidimentionalAndDataMining/IS1308_SSAS_MultidimentionalAndDataMining/Question 2.xlsx
+++ b/IS1308_SSAS_MultidimentionalAndDataMining/IS1308_SSAS_MultidimentionalAndDataMining/Question 2.xlsx
@@ -9,151 +9,178 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="13755"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="13725"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp279B" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp2032" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId2"/>
+    <pivotCache cacheId="22" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\PC\AppData\Local\Temp\tmp279B.odc" keepAlive="1" name="MAYTINH IS1308_SSAS_MultidimentionalAndDataMining" type="5" refreshedVersion="6" background="1">
-    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=IS1308_SSAS_MultidimentionalAndDataMining;Data Source=MAYTINH;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="IS1308RayNauDWCube" commandType="1"/>
+  <connection id="1" odcFile="C:\Users\PC\AppData\Local\Temp\tmp2032.odc" keepAlive="1" name="MAYTINH IS1308_SSAS_MultidimentionalAndDataMining" type="5" refreshedVersion="6" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=IS1308_SSAS_MultidimentionalAndDataMining;Data Source=MAYTINH;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="IS1308 Ray Nau DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542613</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542614</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542615</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542644</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542680</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542681</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542682</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542683</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542684</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542685</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542686</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542688</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542689</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542691</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542990</t>
+  </si>
+  <si>
+    <t>9.881173, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881174, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881175, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881176, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881177, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881178, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881179, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881182, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881183, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881184, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881186, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881187, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881188, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881189, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881190, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881191, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881193, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881194, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881195, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881196, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881197, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881198, 105.542687</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
   <si>
     <t>Insect Quantity</t>
   </si>
   <si>
-    <t>Pesticides Level</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542613</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542614</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542615</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542644</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542680</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542681</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542682</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542683</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542684</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542685</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542686</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542688</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542689</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542691</t>
-  </si>
-  <si>
-    <t>9.881172, 105.542990</t>
-  </si>
-  <si>
-    <t>9.881173, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881174, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881175, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881176, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881177, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881178, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881179, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881182, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881183, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881184, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881186, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881187, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881188, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881189, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881190, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881191, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881193, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881194, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881195, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881196, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881197, 105.542687</t>
-  </si>
-  <si>
-    <t>9.881198, 105.542687</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
+    <t>03</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -637,12 +664,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -716,8 +746,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Question 2.xlsx]tmp279B!PivotTable1</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[Question 2.xlsx]tmp2032!PivotTable1</c:name>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -743,18 +773,6 @@
               <a:rPr lang="en-US"/>
               <a:t>Analyst the correlation between the density of insects trapped and the level of pesticides around the trap</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -802,92 +820,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:separator/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -934,30 +867,6 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -970,11 +879,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp279B!$B$1</c:f>
+              <c:f>'tmp2032'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insect Quantity</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -982,335 +891,6 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:separator/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>tmp279B!$A$2:$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>9.881172, 105.542613</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.881172, 105.542614</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.881172, 105.542615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.881172, 105.542644</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.881172, 105.542680</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.881172, 105.542681</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.881172, 105.542682</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.881172, 105.542683</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.881172, 105.542684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.881172, 105.542685</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.881172, 105.542686</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.881172, 105.542688</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.881172, 105.542689</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.881172, 105.542691</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.881172, 105.542990</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.881173, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.881174, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.881175, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.881176, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.881177, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.881178, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.881179, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.881182, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.881183, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.881184, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.881186, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.881187, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.881188, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.881189, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.881190, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.881191, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.881193, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.881194, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.881195, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.881196, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.881197, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.881198, 105.542687</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>tmp279B!$B$2:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>618</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>711</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>505</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F041-4D8E-A41A-C146275C44D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>tmp279B!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pesticides Level</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1377,247 +957,362 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>tmp279B!$A$2:$A$39</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>'tmp2032'!$A$2:$A$76</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>9.881172, 105.542613</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.881172, 105.542614</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.881172, 105.542615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.881172, 105.542644</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.881172, 105.542680</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.881172, 105.542681</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.881172, 105.542682</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.881172, 105.542683</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.881172, 105.542684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.881172, 105.542685</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.881172, 105.542686</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.881172, 105.542688</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.881172, 105.542689</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.881172, 105.542691</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.881172, 105.542990</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.881173, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.881174, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.881175, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.881176, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.881177, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.881178, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.881179, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.881182, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.881183, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.881184, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.881186, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.881187, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.881188, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.881189, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.881190, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.881191, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.881193, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.881194, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.881195, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.881196, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.881197, 105.542687</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.881198, 105.542687</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>09</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>06</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>02</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>05</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>02</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>05</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>03</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>03</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>01</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>01</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>03</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>06</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>03</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>04</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>08</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>08</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>01</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>08</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>05</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>08</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>01</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>01</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>05</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>06</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>08</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>05</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>02</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>01</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>9.881172, 105.542613</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.881172, 105.542614</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.881172, 105.542615</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.881172, 105.542644</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.881172, 105.542680</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.881172, 105.542681</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>9.881172, 105.542682</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9.881172, 105.542683</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9.881172, 105.542684</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.881172, 105.542685</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>9.881172, 105.542686</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>9.881172, 105.542688</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.881172, 105.542689</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>9.881172, 105.542691</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9.881172, 105.542990</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>9.881173, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>9.881174, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>9.881175, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.881176, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>9.881177, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>9.881178, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>9.881179, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>9.881182, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>9.881183, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>9.881184, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>9.881186, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>9.881187, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>9.881188, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>9.881189, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>9.881190, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>9.881191, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>9.881193, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9.881194, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>9.881195, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>9.881196, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>9.881197, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>9.881198, 105.542687</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp279B!$C$2:$C$39</c:f>
+              <c:f>'tmp2032'!$B$2:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>64</c:v>
+                  <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>56</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>110</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24</c:v>
+                  <c:v>711</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F041-4D8E-A41A-C146275C44D4}"/>
+              <c16:uniqueId val="{00000000-0CBA-45DB-ACF3-76F766E9A492}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1630,11 +1325,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1902730960"/>
-        <c:axId val="1902731376"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1144921295"/>
+        <c:axId val="1144921711"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1902730960"/>
+        <c:axId val="1144921295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902731376"/>
+        <c:crossAx val="1144921711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1685,7 +1381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1902731376"/>
+        <c:axId val="1144921711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,20 +1401,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1750,7 +1432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902730960"/>
+        <c:crossAx val="1144921295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,6 +1444,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1802,6 +1516,7 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -2361,16 +2076,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2393,12 +2108,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PC" refreshedDate="44040.953779050928" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PC" refreshedDate="44041.108896180558" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
-    <cacheField name="[Measures].[Insect Quantity]" caption="Insect Quantity" numFmtId="0" hierarchy="25" level="32767"/>
-    <cacheField name="[Measures].[Pesticides Level]" caption="Pesticides Level" numFmtId="0" hierarchy="24" level="32767"/>
-    <cacheField name="[Trap].[Location].[Location]" caption="Location" numFmtId="0" hierarchy="22" level="1">
+    <cacheField name="[Trap].[Location].[Location]" caption="Location" numFmtId="0" hierarchy="30" level="1">
       <sharedItems count="37">
         <s v="[Trap].[Location].&amp;[9.881172, 105.542613]" c="9.881172, 105.542613"/>
         <s v="[Trap].[Location].&amp;[9.881172, 105.542614]" c="9.881172, 105.542614"/>
@@ -2439,15 +2152,42 @@
         <s v="[Trap].[Location].&amp;[9.881198, 105.542687]" c="9.881198, 105.542687"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Facts].[Pesticides Level Formated].[Pesticides Level Formated]" caption="Pesticides Level Formated" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="10">
+        <s v="[Facts].[Pesticides Level Formated].&amp;[00]" c="00"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[01]" c="01"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[02]" c="02"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[03]" c="03"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[04]" c="04"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[05]" c="05"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[06]" c="06"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[08]" c="08"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[09]" c="09"/>
+        <s v="[Facts].[Pesticides Level Formated].&amp;[10]" c="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Insect Quantity]" caption="Insect Quantity" numFmtId="0" hierarchy="37" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="29">
+  <cacheHierarchies count="41">
+    <cacheHierarchy uniqueName="[Facts].[Approximate Size]" caption="Approximate Size" attribute="1" defaultMemberUniqueName="[Facts].[Approximate Size].[All]" allUniqueName="[Facts].[Approximate Size].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Checked Insect Line]" caption="Checked Insect Line" attribute="1" defaultMemberUniqueName="[Facts].[Checked Insect Line].[All]" allUniqueName="[Facts].[Checked Insect Line].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Ecosystem]" caption="Ecosystem" attribute="1" defaultMemberUniqueName="[Facts].[Ecosystem].[All]" allUniqueName="[Facts].[Ecosystem].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Insect Age]" caption="Insect Age" attribute="1" defaultMemberUniqueName="[Facts].[Insect Age].[All]" allUniqueName="[Facts].[Insect Age].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Insect Quantity]" caption="Insect Quantity" attribute="1" defaultMemberUniqueName="[Facts].[Insect Quantity].[All]" allUniqueName="[Facts].[Insect Quantity].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Pesticides Level]" caption="Pesticides Level" attribute="1" defaultMemberUniqueName="[Facts].[Pesticides Level].[All]" allUniqueName="[Facts].[Pesticides Level].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Pesticides Level Formated]" caption="Pesticides Level Formated" attribute="1" defaultMemberUniqueName="[Facts].[Pesticides Level Formated].[All]" allUniqueName="[Facts].[Pesticides Level Formated].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Facts].[Time Key]" caption="Time Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Facts].[Time Key].[All]" allUniqueName="[Facts].[Time Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[End Date]" caption="End Date" attribute="1" defaultMemberUniqueName="[Farmer].[End Date].[All]" allUniqueName="[Farmer].[End Date].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[Farmer Address]" caption="Farmer Address" attribute="1" defaultMemberUniqueName="[Farmer].[Farmer Address].[All]" allUniqueName="[Farmer].[Farmer Address].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Farmer].[Farmer ID]" caption="Farmer ID" attribute="1" defaultMemberUniqueName="[Farmer].[Farmer ID].[All]" allUniqueName="[Farmer].[Farmer ID].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[Farmer Key]" caption="Farmer Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Farmer].[Farmer Key].[All]" allUniqueName="[Farmer].[Farmer Key].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Farmer].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Farmer].[Hierarchy].[All]" allUniqueName="[Farmer].[Hierarchy].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[Start Date]" caption="Start Date" attribute="1" defaultMemberUniqueName="[Farmer].[Start Date].[All]" allUniqueName="[Farmer].[Start Date].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Diet]" caption="Diet" attribute="1" defaultMemberUniqueName="[Insect].[Diet].[All]" allUniqueName="[Insect].[Diet].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Insect].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Insect].[Hierarchy].[All]" allUniqueName="[Insect].[Hierarchy].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Insect Key]" caption="Insect Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Insect].[Insect Key].[All]" allUniqueName="[Insect].[Insect Key].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Max Size]" caption="Max Size" attribute="1" defaultMemberUniqueName="[Insect].[Max Size].[All]" allUniqueName="[Insect].[Max Size].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Min Size]" caption="Min Size" attribute="1" defaultMemberUniqueName="[Insect].[Min Size].[All]" allUniqueName="[Insect].[Min Size].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
@@ -2455,29 +2195,30 @@
     <cacheHierarchy uniqueName="[Insect].[Sub Kind]" caption="Sub Kind" attribute="1" defaultMemberUniqueName="[Insect].[Sub Kind].[All]" allUniqueName="[Insect].[Sub Kind].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Type]" caption="Type" attribute="1" defaultMemberUniqueName="[Insect].[Type].[All]" allUniqueName="[Insect].[Type].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Time].[Day].[All]" allUniqueName="[Time].[Day].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Time].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Time].[Hierarchy].[All]" allUniqueName="[Time].[Hierarchy].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time].[Day Formated]" caption="Day Formated" attribute="1" defaultMemberUniqueName="[Time].[Day Formated].[All]" allUniqueName="[Time].[Day Formated].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Lunar Day]" caption="Lunar Day" attribute="1" defaultMemberUniqueName="[Time].[Lunar Day].[All]" allUniqueName="[Time].[Lunar Day].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Lunar Month]" caption="Lunar Month" attribute="1" defaultMemberUniqueName="[Time].[Lunar Month].[All]" allUniqueName="[Time].[Lunar Month].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Lunar Year]" caption="Lunar Year" attribute="1" defaultMemberUniqueName="[Time].[Lunar Year].[All]" allUniqueName="[Time].[Lunar Year].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Time].[Month].[All]" allUniqueName="[Time].[Month].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time].[Month Formated]" caption="Month Formated" attribute="1" defaultMemberUniqueName="[Time].[Month Formated].[All]" allUniqueName="[Time].[Month Formated].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Time Key]" caption="Time Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Time].[Time Key].[All]" allUniqueName="[Time].[Time Key].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Time].[Year].[All]" allUniqueName="[Time].[Year].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Trap].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Trap].[Hierarchy].[All]" allUniqueName="[Trap].[Hierarchy].[All]" dimensionUniqueName="[Trap]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Time].[Year Month].[All]" allUniqueName="[Time].[Year Month].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Trap].[Location]" caption="Location" attribute="1" defaultMemberUniqueName="[Trap].[Location].[All]" allUniqueName="[Trap].[Location].[All]" dimensionUniqueName="[Trap]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Trap].[Trap Key]" caption="Trap Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Trap].[Trap Key].[All]" allUniqueName="[Trap].[Trap Key].[All]" dimensionUniqueName="[Trap]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Pesticides Level]" caption="Pesticides Level" measure="1" displayFolder="" measureGroup="Facts" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Facts].[Facts - Time Key]" caption="Facts - Time Key" attribute="1" defaultMemberUniqueName="[Facts].[Facts - Time Key].[All]" allUniqueName="[Facts].[Facts - Time Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Facts].[Farmer Key]" caption="Farmer Key" attribute="1" defaultMemberUniqueName="[Facts].[Farmer Key].[All]" allUniqueName="[Facts].[Farmer Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Facts].[Insect Key]" caption="Insect Key" attribute="1" defaultMemberUniqueName="[Facts].[Insect Key].[All]" allUniqueName="[Facts].[Insect Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Facts].[Trap Key]" caption="Trap Key" attribute="1" defaultMemberUniqueName="[Facts].[Trap Key].[All]" allUniqueName="[Facts].[Trap Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Pesticides Level]" caption="Pesticides Level" measure="1" displayFolder="" measureGroup="Facts" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Insect Quantity]" caption="Insect Quantity" measure="1" displayFolder="" measureGroup="Facts" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Approximate Size]" caption="Approximate Size" measure="1" displayFolder="" measureGroup="Facts" count="0"/>
@@ -2485,7 +2226,8 @@
     <cacheHierarchy uniqueName="[Measures].[Facts Count]" caption="Facts Count" measure="1" displayFolder="" measureGroup="Facts" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="5">
+  <dimensions count="6">
+    <dimension name="Facts" uniqueName="[Facts]" caption="Facts"/>
     <dimension name="Farmer" uniqueName="[Farmer]" caption="Farmer"/>
     <dimension name="Insect" uniqueName="[Insect]" caption="Insect"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
@@ -2495,11 +2237,12 @@
   <measureGroups count="1">
     <measureGroup name="Facts" caption="Facts"/>
   </measureGroups>
-  <maps count="4">
+  <maps count="5">
     <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="2"/>
     <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -2510,11 +2253,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:C39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A1:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="38">
         <item x="0"/>
@@ -2557,143 +2298,262 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="75">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
-    <i>
+    <i r="1">
       <x v="5"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
       <x v="6"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i>
       <x v="7"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i>
       <x v="8"/>
     </i>
-    <i>
+    <i r="1">
       <x v="9"/>
     </i>
     <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
       <x v="10"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="11"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="12"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="13"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="14"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
     <i>
       <x v="15"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="16"/>
     </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i>
       <x v="17"/>
     </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="18"/>
     </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i>
       <x v="19"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="20"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="21"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="22"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="23"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="24"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i>
       <x v="25"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="26"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="27"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="28"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
     <i>
       <x v="29"/>
     </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
     <i>
       <x v="30"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="31"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i>
       <x v="32"/>
     </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
     <i>
       <x v="33"/>
     </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
     <i>
       <x v="34"/>
     </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
     <i>
       <x v="35"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
     <i>
       <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
-    <dataField fld="0" baseField="2" baseItem="13"/>
-    <dataField fld="1" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2702,41 +2562,20 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="29">
+  <pivotHierarchies count="41">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2768,12 +2607,10 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="22"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="30"/>
+    <rowHierarchyUsage hierarchyUsage="6"/>
   </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -3045,451 +2882,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B4" s="3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B6" s="3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>707</v>
-      </c>
-      <c r="C3" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>472</v>
-      </c>
-      <c r="C4" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>596</v>
-      </c>
-      <c r="C6" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>268</v>
-      </c>
-      <c r="C10" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>229</v>
-      </c>
-      <c r="C12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>219</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>363</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>276</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B68" s="3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1">
-        <v>230</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1">
-        <v>77</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>181</v>
-      </c>
-      <c r="C20" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
-        <v>618</v>
-      </c>
-      <c r="C21" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1">
-        <v>259</v>
-      </c>
-      <c r="C22" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1">
-        <v>210</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1">
-        <v>190</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1">
-        <v>351</v>
-      </c>
-      <c r="C25" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1">
-        <v>514</v>
-      </c>
-      <c r="C26" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1">
-        <v>452</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1">
-        <v>355</v>
-      </c>
-      <c r="C28" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="B72" s="3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1">
-        <v>89</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1">
-        <v>511</v>
-      </c>
-      <c r="C31" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1">
-        <v>93</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1">
-        <v>289</v>
-      </c>
-      <c r="C33" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1">
-        <v>141</v>
-      </c>
-      <c r="C34" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1">
-        <v>599</v>
-      </c>
-      <c r="C35" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B73" s="3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="1">
-        <v>580</v>
-      </c>
-      <c r="C36" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B74" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="1">
-        <v>711</v>
-      </c>
-      <c r="C37" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1">
-        <v>505</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="B76" s="3">
         <v>10648</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>